--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="set1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="set2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="set3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="linkam1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="linkam2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="linkam3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Version history" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -977,9 +977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1139040</xdr:colOff>
+      <xdr:colOff>1138680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -989,7 +989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6644160" cy="1792440"/>
+          <a:ext cx="6644520" cy="1792080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1222,9 +1222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1139040</xdr:colOff>
+      <xdr:colOff>1138680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1234,7 +1234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6644160" cy="1792440"/>
+          <a:ext cx="6644520" cy="1792080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1273,17 +1273,7 @@
               <a:uFillTx/>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>Instructio</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>ns:</a:t>
+            <a:t>Instructions:</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1302,52 +1292,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>1. Add the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>names of all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>team </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>members to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the green </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>box in row 1</a:t>
+            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1366,43 +1311,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>2. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values for </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>go in line 6</a:t>
+            <a:t>2. Default values for all parameters go in line 6</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1421,43 +1330,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>3. Sample-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>specific </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>are entered </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>in rows 7+</a:t>
+            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1476,61 +1349,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>4. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values from </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>line 6 will be </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>used for all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>cells left </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>rows 7+</a:t>
+            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1549,61 +1368,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motor/slit </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>positions in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>R,S; leave </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank for no </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motion</a:t>
+            <a:t>5. Specify motor/slit positions in columns R,S; leave blank for no motion</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1622,52 +1387,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>detector </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>position in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column T, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>means to </a:t>
+            <a:t>6. Specify detector position in column T, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -1685,16 +1405,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the detector </a:t>
+            <a:t> the detector </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1713,25 +1424,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add rows </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>above row 7</a:t>
+            <a:t>6. Do not add rows above row 7</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1750,43 +1443,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>before </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column AD</a:t>
+            <a:t>7. Do not add columns before column AD</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1810,9 +1467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1139040</xdr:colOff>
+      <xdr:colOff>1138680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1822,7 +1479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6644160" cy="1792440"/>
+          <a:ext cx="6644520" cy="1792080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1861,17 +1518,7 @@
               <a:uFillTx/>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>Instructio</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>ns:</a:t>
+            <a:t>Instructions:</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1890,52 +1537,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>1. Add the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>names of all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>team </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>members to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the green </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>box in row 1</a:t>
+            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1954,34 +1556,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>2. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values for all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>go in line 6</a:t>
+            <a:t>2. Default values for all parameters go in line 6</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2000,43 +1575,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>3. Sample-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>specific </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>are entered </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>in rows 7+</a:t>
+            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2055,61 +1594,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>4. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values from </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>line 6 will be </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>used for all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>cells left </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>rows 7+</a:t>
+            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2128,61 +1613,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motor/slit </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>positions in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>R,S; leave </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank for no </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motion</a:t>
+            <a:t>5. Specify motor/slit positions in columns R,S; leave blank for no motion</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2201,52 +1632,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>detector </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>position in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column T, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank means </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>to </a:t>
+            <a:t>6. Specify detector position in column T, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -2264,16 +1650,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the detector </a:t>
+            <a:t> the detector </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2292,25 +1669,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add rows </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>above row 7</a:t>
+            <a:t>6. Do not add rows above row 7</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2329,34 +1688,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>before </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column AD</a:t>
+            <a:t>7. Do not add columns before column AD</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2376,7 +1708,7 @@
   </sheetPr>
   <dimension ref="B1:AC14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
@@ -2384,7 +1716,7 @@
       <selection pane="bottomRight" activeCell="R14" activeCellId="0" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3044,7 +2376,7 @@
       <selection pane="bottomRight" activeCell="R14" activeCellId="0" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3679,7 +3011,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3696,7 +3028,7 @@
   </sheetPr>
   <dimension ref="B1:AC14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
@@ -3704,7 +3036,7 @@
       <selection pane="bottomRight" activeCell="R14" activeCellId="0" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -4339,7 +3671,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4360,7 +3692,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="linkam1" sheetId="1" state="visible" r:id="rId2"/>
@@ -977,9 +977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1138680</xdr:colOff>
+      <xdr:colOff>1138320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -989,7 +989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6644520" cy="1792080"/>
+          <a:ext cx="6644880" cy="1791720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1222,9 +1222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1138680</xdr:colOff>
+      <xdr:colOff>1138320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1234,7 +1234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6644520" cy="1792080"/>
+          <a:ext cx="6644880" cy="1791720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1467,9 +1467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1138680</xdr:colOff>
+      <xdr:colOff>1138320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1479,7 +1479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6644520" cy="1792080"/>
+          <a:ext cx="6644880" cy="1791720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1708,15 +1708,15 @@
   </sheetPr>
   <dimension ref="B1:AC14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R14" activeCellId="0" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2369,14 +2369,14 @@
   <dimension ref="B1:AC14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R14" activeCellId="0" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3028,15 +3028,15 @@
   </sheetPr>
   <dimension ref="B1:AC14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R14" activeCellId="0" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3692,7 +3692,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="66">
   <si>
     <t xml:space="preserve">Linkam</t>
   </si>
@@ -139,9 +139,6 @@
     <t xml:space="preserve">Experimenters:</t>
   </si>
   <si>
-    <t xml:space="preserve">Version: 6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Change edge at start?</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
     <t xml:space="preserve">0.5  0.5  0.5  0.5</t>
   </si>
   <si>
+    <t xml:space="preserve">Current</t>
+  </si>
+  <si>
     <t xml:space="preserve">Version</t>
   </si>
   <si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t xml:space="preserve">Added motor grid automation, 3 empty tabs in each template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added LakeShore 331</t>
   </si>
 </sst>
 </file>
@@ -977,9 +980,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1138320</xdr:colOff>
+      <xdr:colOff>1137600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -989,7 +992,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6644880" cy="1791720"/>
+          <a:ext cx="6645960" cy="1791000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1222,9 +1225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1138320</xdr:colOff>
+      <xdr:colOff>1137600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1234,7 +1237,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6644880" cy="1791720"/>
+          <a:ext cx="6645960" cy="1791000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1467,9 +1470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1138320</xdr:colOff>
+      <xdr:colOff>1137600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1479,7 +1482,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6644880" cy="1791720"/>
+          <a:ext cx="6645960" cy="1791000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1713,10 +1716,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -1769,29 +1772,30 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -1831,36 +1835,36 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -1868,95 +1872,95 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
       <c r="AA4" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="M5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="N5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="P5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="S5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="T5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="U5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="V5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="W5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="X5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="Y5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Z5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="AA5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AB5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AC5" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="AC5" s="28" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1967,46 +1971,46 @@
         <v>10</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="30" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="K6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="L6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="N6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="P6" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="Q6" s="42" t="s">
         <v>54</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>55</v>
       </c>
       <c r="R6" s="43"/>
       <c r="S6" s="42"/>
@@ -2045,7 +2049,7 @@
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="12"/>
@@ -2075,7 +2079,7 @@
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="12"/>
@@ -2105,7 +2109,7 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="12"/>
@@ -2135,7 +2139,7 @@
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="12"/>
@@ -2165,7 +2169,7 @@
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="12"/>
@@ -2195,7 +2199,7 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="12"/>
@@ -2225,7 +2229,7 @@
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="12"/>
@@ -2255,7 +2259,7 @@
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="12"/>
@@ -2373,10 +2377,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2429,29 +2433,30 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -2491,36 +2496,36 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -2528,95 +2533,95 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
       <c r="AA4" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="M5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="N5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="P5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="S5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="T5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="U5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="V5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="W5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="X5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="Y5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Z5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="AA5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AB5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AC5" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="AC5" s="28" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2627,46 +2632,46 @@
         <v>10</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="30" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="K6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="L6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="N6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="P6" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="Q6" s="42" t="s">
         <v>54</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>55</v>
       </c>
       <c r="R6" s="43"/>
       <c r="S6" s="42"/>
@@ -2705,7 +2710,7 @@
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="12"/>
@@ -2735,7 +2740,7 @@
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="12"/>
@@ -2765,7 +2770,7 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="12"/>
@@ -2795,7 +2800,7 @@
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="12"/>
@@ -2825,7 +2830,7 @@
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="12"/>
@@ -2855,7 +2860,7 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="12"/>
@@ -2885,7 +2890,7 @@
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="12"/>
@@ -2915,7 +2920,7 @@
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="12"/>
@@ -3033,10 +3038,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3089,29 +3094,30 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -3151,36 +3157,36 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -3188,95 +3194,95 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
       <c r="AA4" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="M5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="N5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="P5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="S5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="T5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="U5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="V5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="W5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="X5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="Y5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Z5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="AA5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AB5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AC5" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="AC5" s="28" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3287,46 +3293,46 @@
         <v>10</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="30" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="K6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="L6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="N6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="P6" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="Q6" s="42" t="s">
         <v>54</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>55</v>
       </c>
       <c r="R6" s="43"/>
       <c r="S6" s="42"/>
@@ -3365,7 +3371,7 @@
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="12"/>
@@ -3395,7 +3401,7 @@
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="12"/>
@@ -3425,7 +3431,7 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="12"/>
@@ -3455,7 +3461,7 @@
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="12"/>
@@ -3485,7 +3491,7 @@
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="12"/>
@@ -3515,7 +3521,7 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="12"/>
@@ -3545,7 +3551,7 @@
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="12"/>
@@ -3575,7 +3581,7 @@
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="12"/>
@@ -3686,13 +3692,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -3700,66 +3706,95 @@
   <sheetData>
     <row r="1" s="60" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B2" s="60"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="60"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28"/>
+      <c r="B4" s="60"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="60" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -335,9 +335,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -673,7 +674,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -681,7 +682,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -777,7 +778,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -829,15 +830,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -849,7 +850,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -877,15 +878,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -980,9 +981,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1137600</xdr:colOff>
+      <xdr:colOff>1137240</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -992,7 +993,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6645960" cy="1791000"/>
+          <a:ext cx="6646320" cy="1790640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1225,9 +1226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1137600</xdr:colOff>
+      <xdr:colOff>1137240</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1237,7 +1238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6645960" cy="1791000"/>
+          <a:ext cx="6646320" cy="1790640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1470,9 +1471,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1137600</xdr:colOff>
+      <xdr:colOff>1137240</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1482,7 +1483,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6645960" cy="1791000"/>
+          <a:ext cx="6646320" cy="1790640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1716,10 +1717,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2031,9 +2032,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="45" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="Y6" s="45" t="b">
+        <v>1</v>
       </c>
       <c r="Z6" s="46" t="n">
         <f aca="false">FALSE()</f>
@@ -2299,8 +2299,8 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="13">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z14" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2351,6 +2351,10 @@
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2373,14 +2377,14 @@
   <dimension ref="B1:AC14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2692,9 +2696,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="45" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="Y6" s="45" t="b">
+        <v>1</v>
       </c>
       <c r="Z6" s="46" t="n">
         <f aca="false">FALSE()</f>
@@ -2960,8 +2963,8 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="13">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z14" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3012,6 +3015,10 @@
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3038,10 +3045,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3353,9 +3360,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="45" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="Y6" s="45" t="b">
+        <v>1</v>
       </c>
       <c r="Z6" s="46" t="n">
         <f aca="false">FALSE()</f>
@@ -3621,8 +3627,8 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="13">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z14" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3673,6 +3679,10 @@
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3698,7 +3708,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="67">
   <si>
     <t xml:space="preserve">Linkam</t>
   </si>
@@ -154,6 +154,9 @@
     <t xml:space="preserve">Add element to filename?</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of repetitions</t>
+  </si>
+  <si>
     <t xml:space="preserve">File name</t>
   </si>
   <si>
@@ -190,9 +193,6 @@
     <t xml:space="preserve">Filename</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of repetitions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Starting scan number</t>
   </si>
   <si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t xml:space="preserve">Added LakeShore 331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loop over entire macro</t>
   </si>
 </sst>
 </file>
@@ -694,12 +697,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -981,9 +984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1137240</xdr:colOff>
+      <xdr:colOff>1136880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -993,7 +996,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6646320" cy="1790640"/>
+          <a:ext cx="6647040" cy="1790280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1226,9 +1229,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1137240</xdr:colOff>
+      <xdr:colOff>1136880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1238,7 +1241,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6646320" cy="1790640"/>
+          <a:ext cx="6647040" cy="1790280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1471,9 +1474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1137240</xdr:colOff>
+      <xdr:colOff>1136880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1483,7 +1486,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6646320" cy="1790640"/>
+          <a:ext cx="6647040" cy="1790280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1717,10 +1720,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -1775,7 +1778,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 8</v>
+        <v>Version: 9</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -1798,74 +1801,78 @@
       <c r="L2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="U2" s="11"/>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="U2" s="10"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
-      <c r="Z2" s="11"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="10"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
-      <c r="Z3" s="11"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -1873,26 +1880,26 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
       <c r="AA4" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>20</v>
@@ -2032,7 +2039,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="45" t="b">
+      <c r="Y6" s="45" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Z6" s="46" t="n">
@@ -2299,7 +2307,7 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="14">
+  <dataValidations count="15">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -2354,6 +2362,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2377,14 +2389,14 @@
   <dimension ref="B1:AC14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2439,7 +2451,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 8</v>
+        <v>Version: 9</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -2462,74 +2474,78 @@
       <c r="L2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="U2" s="11"/>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="U2" s="10"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
-      <c r="Z2" s="11"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="10"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
-      <c r="Z3" s="11"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -2537,26 +2553,26 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
       <c r="AA4" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>20</v>
@@ -2696,7 +2712,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="45" t="b">
+      <c r="Y6" s="45" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Z6" s="46" t="n">
@@ -2963,7 +2980,7 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="14">
+  <dataValidations count="15">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -3018,6 +3035,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3045,10 +3066,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3103,7 +3124,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 8</v>
+        <v>Version: 9</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3126,74 +3147,78 @@
       <c r="L2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="U2" s="11"/>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="U2" s="10"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
-      <c r="Z2" s="11"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="10"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
-      <c r="Z3" s="11"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -3201,26 +3226,26 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
       <c r="AA4" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>20</v>
@@ -3360,7 +3385,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="45" t="b">
+      <c r="Y6" s="45" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Z6" s="46" t="n">
@@ -3627,7 +3653,7 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="14">
+  <dataValidations count="15">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -3682,6 +3708,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3702,13 +3732,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="M2:N2 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -3727,7 +3757,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="60"/>
     </row>
@@ -3805,6 +3835,14 @@
       </c>
       <c r="B13" s="0" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -54,6 +54,48 @@
         </r>
       </text>
     </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -61,7 +103,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -90,6 +132,48 @@
         </r>
       </text>
     </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -97,7 +181,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -123,6 +207,48 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
         </r>
       </text>
     </comment>
@@ -608,8 +734,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="thin"/>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
@@ -617,7 +745,7 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="medium"/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
@@ -984,9 +1112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1136880</xdr:colOff>
+      <xdr:colOff>1136520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -996,7 +1124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6647040" cy="1790280"/>
+          <a:ext cx="6648120" cy="1789920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1229,9 +1357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1136880</xdr:colOff>
+      <xdr:colOff>1136520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1241,7 +1369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6647040" cy="1790280"/>
+          <a:ext cx="6648120" cy="1789920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1474,9 +1602,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1136880</xdr:colOff>
+      <xdr:colOff>1136520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1486,7 +1614,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6647040" cy="1790280"/>
+          <a:ext cx="6648120" cy="1789920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1720,10 +1848,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2:N2"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2021,8 +2149,8 @@
         <v>54</v>
       </c>
       <c r="R6" s="43"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
       <c r="U6" s="44" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -2308,70 +2436,70 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2393,10 +2521,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2:N2"/>
+      <selection pane="bottomRight" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2694,8 +2822,8 @@
         <v>54</v>
       </c>
       <c r="R6" s="43"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
       <c r="U6" s="44" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -2981,70 +3109,70 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3066,10 +3194,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2:N2"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3367,8 +3495,8 @@
         <v>54</v>
       </c>
       <c r="R6" s="43"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
       <c r="U6" s="44" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -3654,70 +3782,70 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3735,10 +3863,10 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="M2:N2 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -3848,7 +3976,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -103,7 +103,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -181,7 +181,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
   <si>
     <t xml:space="preserve">Linkam</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t xml:space="preserve">Loop over entire macro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add slit height to glancing angle spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -1112,9 +1115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1136520</xdr:colOff>
+      <xdr:colOff>1136160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1124,7 +1127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6648120" cy="1789920"/>
+          <a:ext cx="6648480" cy="1789560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1357,9 +1360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1136520</xdr:colOff>
+      <xdr:colOff>1136160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1369,7 +1372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6648120" cy="1789920"/>
+          <a:ext cx="6648480" cy="1789560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1602,9 +1605,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1136520</xdr:colOff>
+      <xdr:colOff>1136160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1614,7 +1617,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6648120" cy="1789920"/>
+          <a:ext cx="6648480" cy="1789560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1851,7 +1854,7 @@
       <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -1906,7 +1909,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 9</v>
+        <v>Version: 10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -2436,70 +2439,70 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2524,7 +2527,7 @@
       <selection pane="bottomRight" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2579,7 +2582,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 9</v>
+        <v>Version: 10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3109,70 +3112,70 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3197,7 +3200,7 @@
       <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3252,7 +3255,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 9</v>
+        <v>Version: 10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3782,70 +3785,70 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3860,13 +3863,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -3885,7 +3888,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="60"/>
     </row>
@@ -3973,10 +3976,18 @@
         <v>66</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -1115,9 +1115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1136160</xdr:colOff>
+      <xdr:colOff>1135800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1127,7 +1127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6648480" cy="1789560"/>
+          <a:ext cx="6648480" cy="1789200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1360,9 +1360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1136160</xdr:colOff>
+      <xdr:colOff>1135800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1372,7 +1372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6648480" cy="1789560"/>
+          <a:ext cx="6648480" cy="1789200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1605,9 +1605,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1136160</xdr:colOff>
+      <xdr:colOff>1135800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1617,7 +1617,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6648480" cy="1789560"/>
+          <a:ext cx="6648480" cy="1789200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1851,10 +1851,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2163,8 +2163,8 @@
         <v>1</v>
       </c>
       <c r="W6" s="45" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="X6" s="45" t="n">
         <f aca="false">FALSE()</f>
@@ -2439,7 +2439,7 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U7:Z14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2459,45 +2459,45 @@
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+      <formula1>-277</formula1>
+      <formula2>500</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
-      <formula1>-277</formula1>
-      <formula2>500</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
-      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
-      <formula1>1</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2520,14 +2520,14 @@
   <dimension ref="B1:AC14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2836,8 +2836,8 @@
         <v>1</v>
       </c>
       <c r="W6" s="45" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="X6" s="45" t="n">
         <f aca="false">FALSE()</f>
@@ -3111,8 +3111,8 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
+  <dataValidations count="16">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U7:Z14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3132,45 +3132,49 @@
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+      <formula1>-277</formula1>
+      <formula2>500</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:S14 T7:T14" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
-      <formula1>-277</formula1>
-      <formula2>500</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
-      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
-      <formula1>1</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3197,10 +3201,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3509,8 +3513,8 @@
         <v>1</v>
       </c>
       <c r="W6" s="45" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="X6" s="45" t="n">
         <f aca="false">FALSE()</f>
@@ -3785,7 +3789,7 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:X6 Z6:Z14 U7:Y14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U7:Z14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3805,45 +3809,45 @@
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+      <formula1>-277</formula1>
+      <formula2>500</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
-      <formula1>-277</formula1>
-      <formula2>500</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
-      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Y6" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
-      <formula1>1</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3869,7 +3873,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="69">
   <si>
     <t xml:space="preserve">Linkam</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t xml:space="preserve">add slit height to glancing angle spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add a third motor to the grid spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -1115,9 +1118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1135800</xdr:colOff>
+      <xdr:colOff>1135440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1127,7 +1130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6648480" cy="1789200"/>
+          <a:ext cx="6648840" cy="1788840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1360,9 +1363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1135800</xdr:colOff>
+      <xdr:colOff>1135440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1372,7 +1375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6648480" cy="1789200"/>
+          <a:ext cx="6648840" cy="1788840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1605,9 +1608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1135800</xdr:colOff>
+      <xdr:colOff>1135440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1617,7 +1620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6648480" cy="1789200"/>
+          <a:ext cx="6648840" cy="1788840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1854,7 +1857,7 @@
       <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -1909,7 +1912,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 10</v>
+        <v>Version: 11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -2527,7 +2530,7 @@
       <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2582,7 +2585,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 10</v>
+        <v>Version: 11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3164,17 +3167,17 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z6" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3204,7 +3207,7 @@
       <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3259,7 +3262,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 10</v>
+        <v>Version: 11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3867,13 +3870,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -3892,7 +3895,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="60"/>
     </row>
@@ -3986,6 +3989,14 @@
       </c>
       <c r="B15" s="0" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="70">
   <si>
     <t xml:space="preserve">Linkam</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t xml:space="preserve">add a third motor to the grid spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added orientation and retraction distance to glancing angle spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -1118,9 +1121,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1135440</xdr:colOff>
+      <xdr:colOff>1135080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1130,7 +1133,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6648840" cy="1788840"/>
+          <a:ext cx="6649200" cy="1788480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1363,9 +1366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1135440</xdr:colOff>
+      <xdr:colOff>1135080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1375,7 +1378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6648840" cy="1788840"/>
+          <a:ext cx="6649200" cy="1788480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1608,9 +1611,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1135440</xdr:colOff>
+      <xdr:colOff>1135080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1620,7 +1623,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6648840" cy="1788840"/>
+          <a:ext cx="6649200" cy="1788480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1857,7 +1860,7 @@
       <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -1912,7 +1915,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 11</v>
+        <v>Version: 12</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -2530,7 +2533,7 @@
       <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2585,7 +2588,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 11</v>
+        <v>Version: 12</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3207,7 +3210,7 @@
       <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3262,7 +3265,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 11</v>
+        <v>Version: 12</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3870,13 +3873,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -3895,7 +3898,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="60"/>
     </row>
@@ -3997,6 +4000,14 @@
       </c>
       <c r="B16" s="0" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -96,6 +96,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -161,6 +175,20 @@
       </text>
     </comment>
     <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -252,12 +280,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="72">
   <si>
     <t xml:space="preserve">Linkam</t>
   </si>
@@ -265,12 +307,6 @@
     <t xml:space="preserve">Experimenters:</t>
   </si>
   <si>
-    <t xml:space="preserve">Change edge at start?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
     <t xml:space="preserve">Close shutter at end?</t>
   </si>
   <si>
@@ -280,6 +316,9 @@
     <t xml:space="preserve">Add element to filename?</t>
   </si>
   <si>
+    <t xml:space="preserve">Temperature+element at beginning</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of repetitions</t>
   </si>
   <si>
@@ -352,13 +391,19 @@
     <t xml:space="preserve">Integration times</t>
   </si>
   <si>
+    <t xml:space="preserve">Detector X</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sample X (absolute position, mm)</t>
   </si>
   <si>
     <t xml:space="preserve">Sample y (absolute position, mm)</t>
   </si>
   <si>
-    <t xml:space="preserve">Detector X</t>
+    <t xml:space="preserve">Slit width (absolute width, mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slit height (absolute height, mm)</t>
   </si>
   <si>
     <t xml:space="preserve">snapshots</t>
@@ -467,6 +512,9 @@
   </si>
   <si>
     <t xml:space="preserve">added orientation and retraction distance to glancing angle spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add columns for sample X/Y + slit W/H to all spreadsheet types, also remove “Change edge at start?” + deprecate e0 column + deprecate single wheel spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -574,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -744,6 +792,17 @@
       <diagonal/>
     </border>
     <border diagonalUp="true" diagonalDown="true">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal style="medium"/>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -793,7 +852,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -898,14 +957,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -970,6 +1029,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -982,7 +1045,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1036,6 +1099,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1121,9 +1188,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1135080</xdr:colOff>
+      <xdr:colOff>1133640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1133,7 +1200,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6649200" cy="1788480"/>
+          <a:ext cx="6651000" cy="1787040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1267,7 +1334,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify motor/slit positions in columns R,S; leave blank for no motion</a:t>
+            <a:t>5. Specify motor/slit positions in columns S,T,U,V; leave blank for no motion</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1286,7 +1353,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify detector position in column T, blank means to </a:t>
+            <a:t>6. Specify detector position in column R, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -1342,7 +1409,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not add columns before column AD</a:t>
+            <a:t>7. Do not add columns before column AF</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1366,9 +1433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1135080</xdr:colOff>
+      <xdr:colOff>1133640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1378,7 +1445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6649200" cy="1788480"/>
+          <a:ext cx="6651000" cy="1787040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1512,7 +1579,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify motor/slit positions in columns R,S; leave blank for no motion</a:t>
+            <a:t>5. Specify motor/slit positions in columns S,T,U,V; leave blank for no motion</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1531,7 +1598,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify detector position in column T, blank means to </a:t>
+            <a:t>6. Specify detector position in column R, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -1587,7 +1654,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not add columns before column AD</a:t>
+            <a:t>7. Do not add columns before column AF</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1611,9 +1678,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1135080</xdr:colOff>
+      <xdr:colOff>1133640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1623,7 +1690,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6649200" cy="1788480"/>
+          <a:ext cx="6651000" cy="1787040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1757,7 +1824,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify motor/slit positions in columns R,S; leave blank for no motion</a:t>
+            <a:t>5. Specify motor/slit positions in columns S,T,U,V; leave blank for no motion</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1776,7 +1843,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify detector position in column T, blank means to </a:t>
+            <a:t>6. Specify detector position in column R, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -1832,7 +1899,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not add columns before column AD</a:t>
+            <a:t>7. Do not add columns before column AF</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1850,17 +1917,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AC14"/>
+  <dimension ref="B1:AE14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -1873,12 +1940,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="23" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1911,35 +1978,30 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 12</v>
+        <v>Version: 13</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="N2" s="10" t="n">
         <v>1</v>
@@ -1948,12 +2010,13 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
+      <c r="T2" s="11"/>
+      <c r="W2" s="10"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -1969,143 +2032,153 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="10"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
-      <c r="Z3" s="10"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="U4" s="16"/>
       <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="W4" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="M5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="N5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="P5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="S5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="T5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="U5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="V5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="W5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="X5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="Y5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Z5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="AA5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AB5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AC5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="28" t="s">
+      <c r="AD5" s="28" t="s">
         <v>42</v>
+      </c>
+      <c r="AE5" s="28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2116,336 +2189,337 @@
         <v>10</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="30" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="44" t="n">
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="45" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V6" s="45" t="n">
+      <c r="X6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W6" s="45" t="n">
+      <c r="Y6" s="46" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
-      </c>
-      <c r="X6" s="45" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="45" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
       </c>
       <c r="Z6" s="46" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
+      <c r="AA6" s="46" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="48" t="n">
+      <c r="B7" s="49" t="n">
         <v>25</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="53"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="54"/>
       <c r="P7" s="29"/>
-      <c r="Q7" s="54"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="57"/>
+      <c r="Q7" s="55"/>
+      <c r="V7" s="56"/>
       <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
       <c r="Z7" s="58"/>
-      <c r="AA7" s="59"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="60"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="48" t="n">
+      <c r="B8" s="49" t="n">
         <v>100</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="51"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="53"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="29"/>
-      <c r="Q8" s="54"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="57"/>
+      <c r="Q8" s="55"/>
+      <c r="V8" s="56"/>
       <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
       <c r="Z8" s="58"/>
-      <c r="AA8" s="59"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="60"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="48" t="n">
+      <c r="B9" s="49" t="n">
         <v>150</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49" t="s">
-        <v>5</v>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="53"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="29"/>
-      <c r="Q9" s="54"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="57"/>
+      <c r="Q9" s="55"/>
+      <c r="V9" s="56"/>
       <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
       <c r="Z9" s="58"/>
-      <c r="AA9" s="59"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="60"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="48" t="n">
+      <c r="B10" s="49" t="n">
         <v>200</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49" t="s">
-        <v>5</v>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="53"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="54"/>
       <c r="P10" s="29"/>
-      <c r="Q10" s="54"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="57"/>
+      <c r="Q10" s="55"/>
+      <c r="V10" s="56"/>
       <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
       <c r="Z10" s="58"/>
-      <c r="AA10" s="59"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="48" t="n">
+      <c r="B11" s="49" t="n">
         <v>250</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49" t="s">
-        <v>5</v>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="53"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="54"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="54"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="57"/>
+      <c r="Q11" s="55"/>
+      <c r="V11" s="56"/>
       <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
       <c r="Z11" s="58"/>
-      <c r="AA11" s="59"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="48" t="n">
+      <c r="B12" s="49" t="n">
         <v>300</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49" t="s">
-        <v>5</v>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="53"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="54"/>
       <c r="P12" s="29"/>
-      <c r="Q12" s="54"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="57"/>
+      <c r="Q12" s="55"/>
+      <c r="V12" s="56"/>
       <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
       <c r="Z12" s="58"/>
-      <c r="AA12" s="59"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="60"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="48" t="n">
+      <c r="B13" s="49" t="n">
         <v>350</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49" t="s">
-        <v>5</v>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="53"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="54"/>
       <c r="P13" s="29"/>
-      <c r="Q13" s="54"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="57"/>
+      <c r="Q13" s="55"/>
+      <c r="V13" s="56"/>
       <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
       <c r="Z13" s="58"/>
-      <c r="AA13" s="59"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="60"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="48" t="n">
+      <c r="B14" s="49" t="n">
         <v>400</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49" t="s">
-        <v>5</v>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="53"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="54"/>
       <c r="P14" s="29"/>
-      <c r="Q14" s="54"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="57"/>
+      <c r="Q14" s="55"/>
+      <c r="V14" s="56"/>
       <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
       <c r="Z14" s="58"/>
-      <c r="AA14" s="59"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:Y1"/>
+    <mergeCell ref="E1:AA1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Z4"/>
-    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U7:Z14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2461,7 +2535,7 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2489,7 +2563,7 @@
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 S7:T14 V7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
@@ -2497,11 +2571,11 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
@@ -2523,17 +2597,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AC14"/>
+  <dimension ref="B1:AE14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2546,12 +2620,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="23" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2584,35 +2658,30 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 12</v>
+        <v>Version: 13</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="N2" s="10" t="n">
         <v>1</v>
@@ -2621,12 +2690,13 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
+      <c r="T2" s="11"/>
+      <c r="W2" s="10"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -2642,143 +2712,153 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="10"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
-      <c r="Z3" s="10"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="U4" s="16"/>
       <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="W4" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="M5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="N5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="P5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="S5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="T5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="U5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="V5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="W5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="X5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="Y5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Z5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="AA5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AB5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AC5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="28" t="s">
+      <c r="AD5" s="28" t="s">
         <v>42</v>
+      </c>
+      <c r="AE5" s="28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2789,336 +2869,337 @@
         <v>10</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="30" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="44" t="n">
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="45" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V6" s="45" t="n">
+      <c r="X6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W6" s="45" t="n">
+      <c r="Y6" s="46" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
-      </c>
-      <c r="X6" s="45" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="45" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
       </c>
       <c r="Z6" s="46" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
+      <c r="AA6" s="46" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="48" t="n">
+      <c r="B7" s="49" t="n">
         <v>25</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="25"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="53"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="54"/>
       <c r="P7" s="29"/>
-      <c r="Q7" s="54"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="57"/>
+      <c r="Q7" s="55"/>
+      <c r="V7" s="56"/>
       <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
       <c r="Z7" s="58"/>
-      <c r="AA7" s="59"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="60"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="48" t="n">
+      <c r="B8" s="49" t="n">
         <v>100</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="51"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="53"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="29"/>
-      <c r="Q8" s="54"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="57"/>
+      <c r="Q8" s="55"/>
+      <c r="V8" s="56"/>
       <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
       <c r="Z8" s="58"/>
-      <c r="AA8" s="59"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="60"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="48" t="n">
+      <c r="B9" s="49" t="n">
         <v>150</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49" t="s">
-        <v>5</v>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="53"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="29"/>
-      <c r="Q9" s="54"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="57"/>
+      <c r="Q9" s="55"/>
+      <c r="V9" s="56"/>
       <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
       <c r="Z9" s="58"/>
-      <c r="AA9" s="59"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="60"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="48" t="n">
+      <c r="B10" s="49" t="n">
         <v>200</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49" t="s">
-        <v>5</v>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="53"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="54"/>
       <c r="P10" s="29"/>
-      <c r="Q10" s="54"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="57"/>
+      <c r="Q10" s="55"/>
+      <c r="V10" s="56"/>
       <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
       <c r="Z10" s="58"/>
-      <c r="AA10" s="59"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="48" t="n">
+      <c r="B11" s="49" t="n">
         <v>250</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49" t="s">
-        <v>5</v>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="53"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="54"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="54"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="57"/>
+      <c r="Q11" s="55"/>
+      <c r="V11" s="56"/>
       <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
       <c r="Z11" s="58"/>
-      <c r="AA11" s="59"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="48" t="n">
+      <c r="B12" s="49" t="n">
         <v>300</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49" t="s">
-        <v>5</v>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="53"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="54"/>
       <c r="P12" s="29"/>
-      <c r="Q12" s="54"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="57"/>
+      <c r="Q12" s="55"/>
+      <c r="V12" s="56"/>
       <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
       <c r="Z12" s="58"/>
-      <c r="AA12" s="59"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="60"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="48" t="n">
+      <c r="B13" s="49" t="n">
         <v>350</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49" t="s">
-        <v>5</v>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="53"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="54"/>
       <c r="P13" s="29"/>
-      <c r="Q13" s="54"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="57"/>
+      <c r="Q13" s="55"/>
+      <c r="V13" s="56"/>
       <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
       <c r="Z13" s="58"/>
-      <c r="AA13" s="59"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="60"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="48" t="n">
+      <c r="B14" s="49" t="n">
         <v>400</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49" t="s">
-        <v>5</v>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="53"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="54"/>
       <c r="P14" s="29"/>
-      <c r="Q14" s="54"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="57"/>
+      <c r="Q14" s="55"/>
+      <c r="V14" s="56"/>
       <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
       <c r="Z14" s="58"/>
-      <c r="AA14" s="59"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:Y1"/>
+    <mergeCell ref="E1:AA1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Z4"/>
-    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="16">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U7:Z14" type="list">
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3134,7 +3215,7 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3162,7 +3243,7 @@
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:S14 T7:T14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
@@ -3170,17 +3251,13 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3200,17 +3277,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AC14"/>
+  <dimension ref="B1:AE14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3223,12 +3300,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="23" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3261,35 +3338,30 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 12</v>
+        <v>Version: 13</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="N2" s="10" t="n">
         <v>1</v>
@@ -3298,12 +3370,13 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
+      <c r="T2" s="11"/>
+      <c r="W2" s="10"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -3319,143 +3392,153 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="10"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
-      <c r="Z3" s="10"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="U4" s="16"/>
       <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="W4" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="M5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="N5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="P5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="S5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="T5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="U5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="V5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="W5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="X5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="Y5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Z5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="AA5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AB5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AC5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="28" t="s">
+      <c r="AD5" s="28" t="s">
         <v>42</v>
+      </c>
+      <c r="AE5" s="28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3466,336 +3549,337 @@
         <v>10</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="30" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="44" t="n">
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="45" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V6" s="45" t="n">
+      <c r="X6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W6" s="45" t="n">
+      <c r="Y6" s="46" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
-      </c>
-      <c r="X6" s="45" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="45" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
       </c>
       <c r="Z6" s="46" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
+      <c r="AA6" s="46" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="48" t="n">
+      <c r="B7" s="49" t="n">
         <v>25</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="53"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="54"/>
       <c r="P7" s="29"/>
-      <c r="Q7" s="54"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="57"/>
+      <c r="Q7" s="55"/>
+      <c r="V7" s="56"/>
       <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
       <c r="Z7" s="58"/>
-      <c r="AA7" s="59"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="60"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="48" t="n">
+      <c r="B8" s="49" t="n">
         <v>100</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="51"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="53"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="29"/>
-      <c r="Q8" s="54"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="57"/>
+      <c r="Q8" s="55"/>
+      <c r="V8" s="56"/>
       <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
       <c r="Z8" s="58"/>
-      <c r="AA8" s="59"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="60"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="48" t="n">
+      <c r="B9" s="49" t="n">
         <v>150</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49" t="s">
-        <v>5</v>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="53"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="29"/>
-      <c r="Q9" s="54"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="57"/>
+      <c r="Q9" s="55"/>
+      <c r="V9" s="56"/>
       <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
       <c r="Z9" s="58"/>
-      <c r="AA9" s="59"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="60"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="48" t="n">
+      <c r="B10" s="49" t="n">
         <v>200</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49" t="s">
-        <v>5</v>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="53"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="54"/>
       <c r="P10" s="29"/>
-      <c r="Q10" s="54"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="57"/>
+      <c r="Q10" s="55"/>
+      <c r="V10" s="56"/>
       <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
       <c r="Z10" s="58"/>
-      <c r="AA10" s="59"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="48" t="n">
+      <c r="B11" s="49" t="n">
         <v>250</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49" t="s">
-        <v>5</v>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="53"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="54"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="54"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="57"/>
+      <c r="Q11" s="55"/>
+      <c r="V11" s="56"/>
       <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
       <c r="Z11" s="58"/>
-      <c r="AA11" s="59"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="48" t="n">
+      <c r="B12" s="49" t="n">
         <v>300</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49" t="s">
-        <v>5</v>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="53"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="54"/>
       <c r="P12" s="29"/>
-      <c r="Q12" s="54"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="57"/>
+      <c r="Q12" s="55"/>
+      <c r="V12" s="56"/>
       <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
       <c r="Z12" s="58"/>
-      <c r="AA12" s="59"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="60"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="48" t="n">
+      <c r="B13" s="49" t="n">
         <v>350</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49" t="s">
-        <v>5</v>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="53"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="54"/>
       <c r="P13" s="29"/>
-      <c r="Q13" s="54"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="57"/>
+      <c r="Q13" s="55"/>
+      <c r="V13" s="56"/>
       <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
       <c r="Z13" s="58"/>
-      <c r="AA13" s="59"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="60"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="48" t="n">
+      <c r="B14" s="49" t="n">
         <v>400</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49" t="s">
-        <v>5</v>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="53"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="54"/>
       <c r="P14" s="29"/>
-      <c r="Q14" s="54"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="57"/>
+      <c r="Q14" s="55"/>
+      <c r="V14" s="56"/>
       <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
       <c r="Z14" s="58"/>
-      <c r="AA14" s="59"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:Y1"/>
+    <mergeCell ref="E1:AA1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Z4"/>
-    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U7:Z14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3811,7 +3895,7 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3839,7 +3923,7 @@
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:T14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
@@ -3847,11 +3931,11 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
@@ -3873,45 +3957,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
   </cols>
   <sheetData>
-    <row r="1" s="60" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="61" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="60"/>
+        <v>57</v>
+      </c>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="n">
-        <v>12</v>
-      </c>
-      <c r="B3" s="60"/>
+        <v>13</v>
+      </c>
+      <c r="B3" s="61"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28"/>
-      <c r="B4" s="60"/>
+      <c r="B4" s="61"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="60" t="s">
         <v>57</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3927,7 +4011,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,7 +4019,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3943,7 +4027,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,7 +4035,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3959,7 +4043,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3967,7 +4051,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3975,7 +4059,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3983,7 +4067,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3991,7 +4075,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,7 +4083,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4007,7 +4091,15 @@
         <v>12</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -11,7 +11,9 @@
     <sheet name="linkam1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="linkam2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="linkam3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Version history" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="linkam4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="linkam5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Version history" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +27,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -51,6 +53,19 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Listing the experimenters is no longer necessary.  The experimenter list will be drawn from the proposal.</t>
         </r>
       </text>
     </comment>
@@ -117,7 +132,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -143,6 +158,19 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Listing the experimenters is no longer necessary.  The experimenter list will be drawn from the proposal.</t>
         </r>
       </text>
     </comment>
@@ -209,7 +237,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -235,6 +263,229 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Listing the experimenters is no longer necessary.  The experimenter list will be drawn from the proposal.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>BR</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Listing the experimenters is no longer necessary.  The experimenter list will be drawn from the proposal.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>BR</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Listing the experimenters is no longer necessary.  The experimenter list will be drawn from the proposal.</t>
         </r>
       </text>
     </comment>
@@ -299,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="73">
   <si>
     <t xml:space="preserve">Linkam</t>
   </si>
@@ -451,7 +702,7 @@
     <t xml:space="preserve">unfocused</t>
   </si>
   <si>
-    <t xml:space="preserve">YBa2Cu3O7</t>
+    <t xml:space="preserve">X2O3</t>
   </si>
   <si>
     <t xml:space="preserve">powder on tape</t>
@@ -515,6 +766,9 @@
   </si>
   <si>
     <t xml:space="preserve">add columns for sample X/Y + slit W/H to all spreadsheet types, also remove “Change edge at start?” + deprecate e0 column + deprecate single wheel spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove experimenters cell, 5 tabs in template</t>
   </si>
 </sst>
 </file>
@@ -526,7 +780,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -551,6 +805,14 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFDDDDDD"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -594,7 +856,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FFE0C2CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -612,7 +874,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFE0C2CD"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -852,7 +1114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -865,8 +1127,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -905,23 +1171,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1139,7 +1405,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFE0C2CD"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1154,7 +1420,7 @@
       <rgbColor rgb="FFCCFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99FF"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -1188,9 +1454,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1133640</xdr:colOff>
+      <xdr:colOff>1132560</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1200,7 +1466,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6651000" cy="1787040"/>
+          <a:ext cx="6653880" cy="1785960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1222,7 +1488,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1433,9 +1699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1133640</xdr:colOff>
+      <xdr:colOff>1132560</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1445,7 +1711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6651000" cy="1787040"/>
+          <a:ext cx="6653880" cy="1785960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1467,7 +1733,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1678,9 +1944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1133640</xdr:colOff>
+      <xdr:colOff>1132560</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1690,7 +1956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6651000" cy="1787040"/>
+          <a:ext cx="6653880" cy="1785960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1712,7 +1978,497 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>Instructions:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>2. Default values for all parameters go in line 6</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>5. Specify motor/slit positions in columns S,T,U,V; leave blank for no motion</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>6. Specify detector position in column R, blank means to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>not move</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> the detector </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>6. Do not add rows above row 7</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>7. Do not add columns before column AF</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>416160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1132560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3192840" y="3926160"/>
+          <a:ext cx="6653880" cy="1785960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="73080">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>Instructions:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>2. Default values for all parameters go in line 6</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>5. Specify motor/slit positions in columns S,T,U,V; leave blank for no motion</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>6. Specify detector position in column R, blank means to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>not move</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> the detector </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>6. Do not add rows above row 7</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>7. Do not add columns before column AF</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>416160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1132560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3192840" y="3926160"/>
+          <a:ext cx="6653880" cy="1785960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="73080">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1924,10 +2680,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -1979,534 +2735,533 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
+      <c r="AB1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 13</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="H2" s="6" t="s">
+        <v>Version: 14</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="10" t="n">
+      <c r="N2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="W2" s="10"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="W2" s="11"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
-      <c r="AB2" s="10"/>
+      <c r="AB2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="11"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
-      <c r="AB3" s="10"/>
+      <c r="AB3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16" t="s">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16" t="s">
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="17" t="s">
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="V5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="X5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Y5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="Z5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AA5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AB5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AC5" s="21" t="s">
+      <c r="AC5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AD5" s="28" t="s">
+      <c r="AD5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AE5" s="28" t="s">
+      <c r="AE5" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="30" t="n">
+    <row r="6" s="30" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="C6" s="30" t="n">
+      <c r="C6" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="30" t="n">
+      <c r="F6" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="P6" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="45" t="n">
+      <c r="R6" s="44"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X6" s="46" t="n">
+      <c r="X6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="46" t="n">
+      <c r="Y6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="46" t="n">
+      <c r="Z6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="46" t="n">
+      <c r="AA6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AB6" s="47" t="n">
+      <c r="AB6" s="48" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="49" t="n">
+      <c r="B7" s="50" t="n">
         <v>25</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="55"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="60"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="56"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="49" t="n">
+      <c r="B8" s="50" t="n">
         <v>100</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="55"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="60"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="56"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="49" t="n">
+      <c r="B9" s="50" t="n">
         <v>150</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="55"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="60"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="56"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="49" t="n">
+      <c r="B10" s="50" t="n">
         <v>200</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="55"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="60"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="56"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="49" t="n">
+      <c r="B11" s="50" t="n">
         <v>250</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="55"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="56"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="49" t="n">
+      <c r="B12" s="50" t="n">
         <v>300</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="55"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="56"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="49" t="n">
+      <c r="B13" s="50" t="n">
         <v>350</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="55"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="56"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="49" t="n">
+      <c r="B14" s="50" t="n">
         <v>400</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="55"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="60"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="56"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AA1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D4:E4"/>
@@ -2519,70 +3274,70 @@
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 S7:T14 V7:V14" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 S7:T14 V7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2604,10 +3359,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2659,534 +3414,533 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
+      <c r="AB1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 13</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="H2" s="6" t="s">
+        <v>Version: 14</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="10" t="n">
+      <c r="N2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="W2" s="10"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="W2" s="11"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
-      <c r="AB2" s="10"/>
+      <c r="AB2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="11"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
-      <c r="AB3" s="10"/>
+      <c r="AB3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16" t="s">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16" t="s">
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="17" t="s">
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="V5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="X5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Y5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="Z5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AA5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AB5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AC5" s="21" t="s">
+      <c r="AC5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AD5" s="28" t="s">
+      <c r="AD5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AE5" s="28" t="s">
+      <c r="AE5" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="30" t="n">
+    <row r="6" s="30" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="C6" s="30" t="n">
+      <c r="C6" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="30" t="n">
+      <c r="F6" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="P6" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="45" t="n">
+      <c r="R6" s="44"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X6" s="46" t="n">
+      <c r="X6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="46" t="n">
+      <c r="Y6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="46" t="n">
+      <c r="Z6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="46" t="n">
+      <c r="AA6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AB6" s="47" t="n">
+      <c r="AB6" s="48" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="49" t="n">
+      <c r="B7" s="50" t="n">
         <v>25</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="55"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="60"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="56"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="49" t="n">
+      <c r="B8" s="50" t="n">
         <v>100</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="55"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="60"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="56"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="49" t="n">
+      <c r="B9" s="50" t="n">
         <v>150</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="55"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="60"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="56"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="49" t="n">
+      <c r="B10" s="50" t="n">
         <v>200</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="55"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="60"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="56"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="49" t="n">
+      <c r="B11" s="50" t="n">
         <v>250</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="55"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="56"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="49" t="n">
+      <c r="B12" s="50" t="n">
         <v>300</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="55"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="56"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="49" t="n">
+      <c r="B13" s="50" t="n">
         <v>350</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="55"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="56"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="49" t="n">
+      <c r="B14" s="50" t="n">
         <v>400</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="55"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="60"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="56"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AA1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D4:E4"/>
@@ -3199,70 +3953,70 @@
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3284,10 +4038,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3339,534 +4093,533 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
+      <c r="AB1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 13</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="H2" s="6" t="s">
+        <v>Version: 14</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="10" t="n">
+      <c r="N2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="W2" s="10"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="W2" s="11"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
-      <c r="AB2" s="10"/>
+      <c r="AB2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="11"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
-      <c r="AB3" s="10"/>
+      <c r="AB3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16" t="s">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16" t="s">
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="17" t="s">
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="V5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="X5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Y5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="Z5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AA5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AB5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AC5" s="21" t="s">
+      <c r="AC5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AD5" s="28" t="s">
+      <c r="AD5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AE5" s="28" t="s">
+      <c r="AE5" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" s="29" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="30" t="n">
+    <row r="6" s="30" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="C6" s="30" t="n">
+      <c r="C6" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="30" t="n">
+      <c r="F6" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="P6" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="45" t="n">
+      <c r="R6" s="44"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X6" s="46" t="n">
+      <c r="X6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="46" t="n">
+      <c r="Y6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="46" t="n">
+      <c r="Z6" s="47" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="46" t="n">
+      <c r="AA6" s="47" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AB6" s="47" t="n">
+      <c r="AB6" s="48" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="49" t="n">
+      <c r="B7" s="50" t="n">
         <v>25</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="55"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="60"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="56"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="61"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="49" t="n">
+      <c r="B8" s="50" t="n">
         <v>100</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="55"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="60"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="56"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="61"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="49" t="n">
+      <c r="B9" s="50" t="n">
         <v>150</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="55"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="60"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="56"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="49" t="n">
+      <c r="B10" s="50" t="n">
         <v>200</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="55"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="60"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="56"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="49" t="n">
+      <c r="B11" s="50" t="n">
         <v>250</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="55"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="56"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="49" t="n">
+      <c r="B12" s="50" t="n">
         <v>300</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="55"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="56"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="49" t="n">
+      <c r="B13" s="50" t="n">
         <v>350</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="55"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="56"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="49" t="n">
+      <c r="B14" s="50" t="n">
         <v>400</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="55"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="60"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="56"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AA1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D4:E4"/>
@@ -3879,70 +4632,70 @@
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3957,44 +4710,1402 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="B1:AE14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="L6" activeCellId="0" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="23" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 14</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" s="30" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="31" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" s="31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="44"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="47" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="47" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="48" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="50" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="56"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="61"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="50" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="56"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="61"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="50" t="n">
+        <v>150</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="56"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="61"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="50" t="n">
+        <v>200</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="56"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="61"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="50" t="n">
+        <v>250</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="56"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="61"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="50" t="n">
+        <v>300</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="56"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="61"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="50" t="n">
+        <v>350</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="56"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="61"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="50" t="n">
+        <v>400</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="56"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
+  </mergeCells>
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+      <formula1>-277</formula1>
+      <formula2>500</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:AE14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="L6" activeCellId="0" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="23" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 14</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" s="30" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="31" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" s="31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="44"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="47" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="47" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="47" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="48" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="50" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="56"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="61"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="50" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="56"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="61"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="50" t="n">
+        <v>150</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="56"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="61"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="50" t="n">
+        <v>200</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="56"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="61"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="50" t="n">
+        <v>250</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="56"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="61"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="50" t="n">
+        <v>300</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="56"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="61"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="50" t="n">
+        <v>350</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="56"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="61"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="50" t="n">
+        <v>400</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="56"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
+  </mergeCells>
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+      <formula1>-277</formula1>
+      <formula2>500</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
   </cols>
   <sheetData>
-    <row r="1" s="61" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+    <row r="1" s="62" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="n">
-        <v>13</v>
-      </c>
-      <c r="B3" s="61"/>
+      <c r="A3" s="29" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3" s="62"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="62"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4098,14 +6209,22 @@
       <c r="A18" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="63" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -27,7 +27,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -132,7 +132,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -237,7 +237,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -342,7 +342,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -447,7 +447,7 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="74">
   <si>
     <t xml:space="preserve">Linkam</t>
   </si>
@@ -769,6 +769,9 @@
   </si>
   <si>
     <t xml:space="preserve">remove experimenters cell, 5 tabs in template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update validity for plotting mode columns</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1117,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1325,6 +1328,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1454,9 +1461,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1132560</xdr:colOff>
+      <xdr:colOff>1132200</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1466,7 +1473,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6653880" cy="1785960"/>
+          <a:ext cx="6653880" cy="1785600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1488,7 +1495,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1699,9 +1706,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1132560</xdr:colOff>
+      <xdr:colOff>1132200</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1711,7 +1718,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6653880" cy="1785960"/>
+          <a:ext cx="6653880" cy="1785600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1733,7 +1740,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1944,9 +1951,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1132560</xdr:colOff>
+      <xdr:colOff>1132200</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1956,7 +1963,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6653880" cy="1785960"/>
+          <a:ext cx="6653880" cy="1785600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1978,7 +1985,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2189,9 +2196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1132560</xdr:colOff>
+      <xdr:colOff>1132200</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2201,7 +2208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6653880" cy="1785960"/>
+          <a:ext cx="6653880" cy="1785600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2223,7 +2230,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2434,9 +2441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1132560</xdr:colOff>
+      <xdr:colOff>1132200</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2446,7 +2453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6653880" cy="1785960"/>
+          <a:ext cx="6653880" cy="1785600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2468,7 +2475,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2680,10 +2687,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2740,7 +2747,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 14</v>
+        <v>Version: 15</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -3030,24 +3037,24 @@
       <c r="E7" s="52"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="50"/>
-      <c r="L7" s="55"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="55"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="56"/>
       <c r="P7" s="30"/>
-      <c r="Q7" s="56"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="61"/>
+      <c r="Q7" s="57"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="62"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50" t="n">
@@ -3060,24 +3067,24 @@
       <c r="E8" s="52"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="50"/>
-      <c r="L8" s="55"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="55"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="30"/>
-      <c r="Q8" s="56"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="61"/>
+      <c r="Q8" s="57"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="62"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50" t="n">
@@ -3090,24 +3097,24 @@
       <c r="E9" s="30"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="50"/>
-      <c r="L9" s="55"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="55"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="56"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="56"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="61"/>
+      <c r="Q9" s="57"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="62"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50" t="n">
@@ -3120,24 +3127,24 @@
       <c r="E10" s="30"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="50"/>
-      <c r="L10" s="55"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="55"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="56"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="56"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="61"/>
+      <c r="Q10" s="57"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="62"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50" t="n">
@@ -3150,24 +3157,24 @@
       <c r="E11" s="30"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="55"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="55"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="56"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="56"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
+      <c r="Q11" s="57"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="62"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50" t="n">
@@ -3180,24 +3187,24 @@
       <c r="E12" s="30"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="50"/>
-      <c r="L12" s="55"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="52"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="55"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="56"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="61"/>
+      <c r="Q12" s="57"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="62"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50" t="n">
@@ -3210,24 +3217,24 @@
       <c r="E13" s="30"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="50"/>
-      <c r="L13" s="55"/>
+      <c r="L13" s="56"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="55"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="56"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="56"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="61"/>
+      <c r="Q13" s="57"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="62"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50" t="n">
@@ -3240,24 +3247,24 @@
       <c r="E14" s="30"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="50"/>
-      <c r="L14" s="55"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="55"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="56"/>
       <c r="P14" s="30"/>
-      <c r="Q14" s="56"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="61"/>
+      <c r="Q14" s="57"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3273,71 +3280,67 @@
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 S7:T14 V7:V14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 S7:T14 V7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H14" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3359,10 +3362,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3419,7 +3422,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 14</v>
+        <v>Version: 15</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -3709,24 +3712,24 @@
       <c r="E7" s="26"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="50"/>
-      <c r="L7" s="55"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="55"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="56"/>
       <c r="P7" s="30"/>
-      <c r="Q7" s="56"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="61"/>
+      <c r="Q7" s="57"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="62"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50" t="n">
@@ -3739,24 +3742,24 @@
       <c r="E8" s="52"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="50"/>
-      <c r="L8" s="55"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="55"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="30"/>
-      <c r="Q8" s="56"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="61"/>
+      <c r="Q8" s="57"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="62"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50" t="n">
@@ -3769,24 +3772,24 @@
       <c r="E9" s="30"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="50"/>
-      <c r="L9" s="55"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="55"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="56"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="56"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="61"/>
+      <c r="Q9" s="57"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="62"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50" t="n">
@@ -3799,24 +3802,24 @@
       <c r="E10" s="30"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="50"/>
-      <c r="L10" s="55"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="55"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="56"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="56"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="61"/>
+      <c r="Q10" s="57"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="62"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50" t="n">
@@ -3829,24 +3832,24 @@
       <c r="E11" s="30"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="55"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="55"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="56"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="56"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
+      <c r="Q11" s="57"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="62"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50" t="n">
@@ -3859,24 +3862,24 @@
       <c r="E12" s="30"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="50"/>
-      <c r="L12" s="55"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="52"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="55"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="56"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="61"/>
+      <c r="Q12" s="57"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="62"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50" t="n">
@@ -3889,24 +3892,24 @@
       <c r="E13" s="30"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="50"/>
-      <c r="L13" s="55"/>
+      <c r="L13" s="56"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="55"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="56"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="56"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="61"/>
+      <c r="Q13" s="57"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="62"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50" t="n">
@@ -3919,24 +3922,24 @@
       <c r="E14" s="30"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="50"/>
-      <c r="L14" s="55"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="55"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="56"/>
       <c r="P14" s="30"/>
-      <c r="Q14" s="56"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="61"/>
+      <c r="Q14" s="57"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3952,71 +3955,67 @@
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H14" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4038,10 +4037,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -4098,7 +4097,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 14</v>
+        <v>Version: 15</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -4388,24 +4387,24 @@
       <c r="E7" s="52"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="50"/>
-      <c r="L7" s="55"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="55"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="56"/>
       <c r="P7" s="30"/>
-      <c r="Q7" s="56"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="61"/>
+      <c r="Q7" s="57"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="62"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50" t="n">
@@ -4418,24 +4417,24 @@
       <c r="E8" s="52"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="50"/>
-      <c r="L8" s="55"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="55"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="30"/>
-      <c r="Q8" s="56"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="61"/>
+      <c r="Q8" s="57"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="62"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50" t="n">
@@ -4448,24 +4447,24 @@
       <c r="E9" s="30"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="50"/>
-      <c r="L9" s="55"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="55"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="56"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="56"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="61"/>
+      <c r="Q9" s="57"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="62"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50" t="n">
@@ -4478,24 +4477,24 @@
       <c r="E10" s="30"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="50"/>
-      <c r="L10" s="55"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="55"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="56"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="56"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="61"/>
+      <c r="Q10" s="57"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="62"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50" t="n">
@@ -4508,24 +4507,24 @@
       <c r="E11" s="30"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="55"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="55"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="56"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="56"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
+      <c r="Q11" s="57"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="62"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50" t="n">
@@ -4538,24 +4537,24 @@
       <c r="E12" s="30"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="50"/>
-      <c r="L12" s="55"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="52"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="55"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="56"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="61"/>
+      <c r="Q12" s="57"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="62"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50" t="n">
@@ -4568,24 +4567,24 @@
       <c r="E13" s="30"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="50"/>
-      <c r="L13" s="55"/>
+      <c r="L13" s="56"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="55"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="56"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="56"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="61"/>
+      <c r="Q13" s="57"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="62"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50" t="n">
@@ -4598,24 +4597,24 @@
       <c r="E14" s="30"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="50"/>
-      <c r="L14" s="55"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="55"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="56"/>
       <c r="P14" s="30"/>
-      <c r="Q14" s="56"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="61"/>
+      <c r="Q14" s="57"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4631,71 +4630,67 @@
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H14" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4717,10 +4712,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -4777,7 +4772,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 14</v>
+        <v>Version: 15</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -5067,24 +5062,24 @@
       <c r="E7" s="52"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="50"/>
-      <c r="L7" s="55"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="55"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="56"/>
       <c r="P7" s="30"/>
-      <c r="Q7" s="56"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="61"/>
+      <c r="Q7" s="57"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="62"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50" t="n">
@@ -5097,24 +5092,24 @@
       <c r="E8" s="52"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="50"/>
-      <c r="L8" s="55"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="55"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="30"/>
-      <c r="Q8" s="56"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="61"/>
+      <c r="Q8" s="57"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="62"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50" t="n">
@@ -5127,24 +5122,24 @@
       <c r="E9" s="30"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="50"/>
-      <c r="L9" s="55"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="55"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="56"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="56"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="61"/>
+      <c r="Q9" s="57"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="62"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50" t="n">
@@ -5157,24 +5152,24 @@
       <c r="E10" s="30"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="50"/>
-      <c r="L10" s="55"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="55"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="56"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="56"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="61"/>
+      <c r="Q10" s="57"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="62"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50" t="n">
@@ -5187,24 +5182,24 @@
       <c r="E11" s="30"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="55"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="55"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="56"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="56"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
+      <c r="Q11" s="57"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="62"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50" t="n">
@@ -5217,24 +5212,24 @@
       <c r="E12" s="30"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="50"/>
-      <c r="L12" s="55"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="52"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="55"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="56"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="61"/>
+      <c r="Q12" s="57"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="62"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50" t="n">
@@ -5247,24 +5242,24 @@
       <c r="E13" s="30"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="50"/>
-      <c r="L13" s="55"/>
+      <c r="L13" s="56"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="55"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="56"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="56"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="61"/>
+      <c r="Q13" s="57"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="62"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50" t="n">
@@ -5277,24 +5272,24 @@
       <c r="E14" s="30"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="50"/>
-      <c r="L14" s="55"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="55"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="56"/>
       <c r="P14" s="30"/>
-      <c r="Q14" s="56"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="61"/>
+      <c r="Q14" s="57"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5310,71 +5305,67 @@
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H14" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5396,10 +5387,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -5456,7 +5447,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 14</v>
+        <v>Version: 15</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -5746,24 +5737,24 @@
       <c r="E7" s="52"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="50"/>
-      <c r="L7" s="55"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="55"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="56"/>
       <c r="P7" s="30"/>
-      <c r="Q7" s="56"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="61"/>
+      <c r="Q7" s="57"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="62"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="50" t="n">
@@ -5776,24 +5767,24 @@
       <c r="E8" s="52"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="50"/>
-      <c r="L8" s="55"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="55"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="30"/>
-      <c r="Q8" s="56"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="61"/>
+      <c r="Q8" s="57"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="62"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="50" t="n">
@@ -5806,24 +5797,24 @@
       <c r="E9" s="30"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="50"/>
-      <c r="L9" s="55"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="55"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="56"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="56"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="61"/>
+      <c r="Q9" s="57"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="62"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="50" t="n">
@@ -5836,24 +5827,24 @@
       <c r="E10" s="30"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="50"/>
-      <c r="L10" s="55"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="55"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="56"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="56"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="61"/>
+      <c r="Q10" s="57"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="62"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="50" t="n">
@@ -5866,24 +5857,24 @@
       <c r="E11" s="30"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="50"/>
-      <c r="L11" s="55"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="55"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="56"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="56"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
+      <c r="Q11" s="57"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="62"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="50" t="n">
@@ -5896,24 +5887,24 @@
       <c r="E12" s="30"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="50"/>
-      <c r="L12" s="55"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="52"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="55"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="56"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="61"/>
+      <c r="Q12" s="57"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="62"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="50" t="n">
@@ -5926,24 +5917,24 @@
       <c r="E13" s="30"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="50"/>
-      <c r="L13" s="55"/>
+      <c r="L13" s="56"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="55"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="56"/>
       <c r="P13" s="30"/>
-      <c r="Q13" s="56"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="61"/>
+      <c r="Q13" s="57"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="62"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="50" t="n">
@@ -5956,24 +5947,24 @@
       <c r="E14" s="30"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="50"/>
-      <c r="L14" s="55"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="55"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="56"/>
       <c r="P14" s="30"/>
-      <c r="Q14" s="56"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="61"/>
+      <c r="Q14" s="57"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5989,71 +5980,67 @@
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 D6:D14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:C70" type="decimal">
       <formula1>-277</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7:I14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end,Temperature at beginning,Temperature at end,Temperature+element at beginning,Temperature+element at end,Temperature+element+edge at beginning,Temperature+element+edge at "</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:V6 V7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H14" type="list">
+      <formula1>"transmission,fluorescence,reference,yield,pilatus,test,"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6068,19 +6055,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
   </cols>
   <sheetData>
-    <row r="1" s="62" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="63" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
         <v>56</v>
       </c>
@@ -6089,23 +6076,23 @@
       <c r="A2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="n">
-        <v>14</v>
-      </c>
-      <c r="B3" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="63"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29"/>
-      <c r="B4" s="62"/>
+      <c r="B4" s="63"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6209,7 +6196,7 @@
       <c r="A18" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="64" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6221,10 +6208,18 @@
         <v>72</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/linkam.xlsx
+++ b/startup/xlsx/linkam.xlsx
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="75">
   <si>
     <t xml:space="preserve">Linkam</t>
   </si>
@@ -772,6 +772,9 @@
   </si>
   <si>
     <t xml:space="preserve">update validity for plotting mode columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added resonant reflectivity spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -1461,9 +1464,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1132200</xdr:colOff>
+      <xdr:colOff>1131840</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1473,7 +1476,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6653880" cy="1785600"/>
+          <a:ext cx="6654240" cy="1785240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1706,9 +1709,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1132200</xdr:colOff>
+      <xdr:colOff>1131840</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1718,7 +1721,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6653880" cy="1785600"/>
+          <a:ext cx="6654240" cy="1785240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1951,9 +1954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1132200</xdr:colOff>
+      <xdr:colOff>1131840</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1963,7 +1966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6653880" cy="1785600"/>
+          <a:ext cx="6654240" cy="1785240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2196,9 +2199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1132200</xdr:colOff>
+      <xdr:colOff>1131840</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2208,7 +2211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6653880" cy="1785600"/>
+          <a:ext cx="6654240" cy="1785240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2441,9 +2444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1132200</xdr:colOff>
+      <xdr:colOff>1131840</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2453,7 +2456,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3192840" y="3926160"/>
-          <a:ext cx="6653880" cy="1785600"/>
+          <a:ext cx="6654240" cy="1785240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2687,10 +2690,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2747,7 +2750,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 15</v>
+        <v>Version: 16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -3365,7 +3368,7 @@
       <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -3422,7 +3425,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 15</v>
+        <v>Version: 16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -4040,7 +4043,7 @@
       <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -4097,7 +4100,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 15</v>
+        <v>Version: 16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -4715,7 +4718,7 @@
       <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -4772,7 +4775,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 15</v>
+        <v>Version: 16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -5390,7 +5393,7 @@
       <selection pane="bottomRight" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -5447,7 +5450,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 15</v>
+        <v>Version: 16</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -6055,13 +6058,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -6080,7 +6083,8 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="n">
-        <v>15</v>
+        <f aca="false">MAX(A6:A41)</f>
+        <v>16</v>
       </c>
       <c r="B3" s="63"/>
     </row>
@@ -6214,6 +6218,14 @@
       </c>
       <c r="B20" s="0" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
